--- a/data/trans_dic/P23_9_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_9_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas</t>
+          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas (tasa de respuesta: 99,2%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>18,95%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>15,34%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>20,47%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20,9%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13,85%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>17,77%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>15,18%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>19,33%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>18,04%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>18,05%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>15,29%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>19,52%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>18,18%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>13,48%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>18,35%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>18,61%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,9; 18,67</t>
+          <t>12,24; 19,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,86; 21,44</t>
+          <t>15,3; 22,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,67; 19,54</t>
+          <t>12,22; 18,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,78; 22,24</t>
+          <t>10,17; 16,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,72; 18,41</t>
+          <t>16,13; 22,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,81; 23,68</t>
+          <t>15,93; 22,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,55; 23,39</t>
+          <t>12,8; 18,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,05; 20,77</t>
+          <t>17,92; 23,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,28; 17,64</t>
+          <t>17,86; 23,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,28; 21,96</t>
+          <t>11,1; 17,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,99; 20,62</t>
+          <t>15,37; 20,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,42; 20,51</t>
+          <t>15,44; 20,94</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>13,28; 17,46</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>17,46; 21,75</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>16,19; 20,52</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>11,37; 15,8</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>16,14; 20,62</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>16,32; 20,68</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17,1%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12,7%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>18,51%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>16,32%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>18,85%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>15,87%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>15,62%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>15,76%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18,93%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>16,08%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>11,58%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>15,97%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,33; 24,72</t>
+          <t>12,15; 21,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,32; 24,09</t>
+          <t>15,02; 23,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 18,57</t>
+          <t>12,16; 18,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,87; 18,47</t>
+          <t>7,81; 14,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,49; 19,54</t>
+          <t>9,63; 18,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,86; 22,4</t>
+          <t>10,46; 20,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,11; 20,16</t>
+          <t>12,42; 19,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,14; 24,98</t>
+          <t>15,64; 21,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,83; 19,95</t>
+          <t>14,16; 20,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,3; 21,73</t>
+          <t>9,83; 16,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,0; 18,25</t>
+          <t>13,25; 25,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,49; 20,12</t>
+          <t>11,25; 21,34</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13,2; 18,91</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>16,3; 21,67</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>13,86; 18,45</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>9,54; 14,1</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>12,59; 19,9</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>11,95; 18,97</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>13,33%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>14,86%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>21,05%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19,17%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,61%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>11,66%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>25,21%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>18,97%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>25,6%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>19,44%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>11,97%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 14,89</t>
+          <t>4,71; 15,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,31; 38,87</t>
+          <t>21,77; 40,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,53; 30,92</t>
+          <t>12,18; 32,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>7,55; 21,4</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>9,61; 22,14</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,93; 28,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,87; 25,02</t>
+          <t>10,36; 22,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>14,78; 27,44</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>13,44; 25,31</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,59; 17,54</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>8,01; 15,4</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>20,29; 30,79</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>14,9; 26,03</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>8,94; 17,29</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>20,83; 32,38</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>14,87; 26,42</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>7,87; 17,62</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,60 +1305,90 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>12,06%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>17,68%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>15,32%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>19,91%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19,26%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>17,93%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>15,22%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>19,83%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>17,31%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17,52%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15,15%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>19,99%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>17,52%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>17,81%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
         <is>
           <t>17,8%</t>
         </is>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,63; 18,0</t>
+          <t>12,5; 17,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,43; 22,45</t>
+          <t>17,62; 22,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,24; 18,26</t>
+          <t>13,59; 18,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,1; 20,58</t>
+          <t>9,81; 14,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,42; 17,53</t>
+          <t>15,14; 20,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,89; 21,8</t>
+          <t>15,72; 21,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,02; 21,02</t>
+          <t>13,63; 17,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,6; 20,54</t>
+          <t>18,04; 21,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,57; 16,91</t>
+          <t>17,42; 21,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,15; 21,47</t>
+          <t>11,16; 15,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,97; 18,98</t>
+          <t>15,4; 20,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,08; 19,71</t>
+          <t>15,25; 20,32</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>13,67; 16,89</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>18,36; 21,72</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>16,09; 19,04</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>11,1; 14,16</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>16,06; 19,76</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>16,01; 19,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas (tasa de respuesta: 99,2%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>245242</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>298508</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>247452</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>210515</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>43090</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>43367</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>271109</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>360905</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>372231</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>247139</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>41816</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>42236</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>516351</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>659413</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>619682</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>457654</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>84906</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>85602</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>197383; 309749</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>247020; 358401</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>198718; 306028</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>163845; 260792</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>36685; 51040</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>36015; 50827</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>226008; 320114</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>315951; 415004</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>318241; 423004</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>198124; 313431</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>36177; 48967</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>36113; 48989</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>448709; 589585</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>589870; 734792</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>551814; 699238</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>386060; 536691</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>74675; 95395</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>75088; 95143</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>214093</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>257085</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>205226</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>144129</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9685</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10688</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>215165</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>252199</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>228140</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>171835</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12136</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10155</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>429259</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>509284</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>433366</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>315965</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>21820</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>20844</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>163073; 285505</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>203257; 314346</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>165447; 257166</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>107308; 202185</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6849; 13251</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7642; 14604</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>171679; 271019</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>209257; 292240</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>188959; 272658</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>132991; 222126</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8684; 16830</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7317; 13871</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>359408; 514935</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>438704; 583158</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>373582; 497100</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>260179; 384594</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>17198; 27197</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>16504; 26184</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>37062</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>123188</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>82614</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>54757</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>64224</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>81722</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>77233</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>43410</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>101286</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>204911</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>98167</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19180; 64768</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>89754; 166238</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>51110; 136146</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31028; 87904</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41725; 91414</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>57378; 106542</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>54137; 101960</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22881; 71746</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>72444; 140103</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>166727; 259224</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>122280; 217248</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>64548; 144437</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>545.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>351.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>496398</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>678782</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>535292</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>409401</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>52774</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>54055</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>550498</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>694826</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>677604</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>462384</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>53952</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>52391</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1046896</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1373608</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1212895</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>871785</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>106726</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>106446</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>420081; 590636</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>595421; 763147</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>462771; 624128</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>333230; 486184</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>45205; 60669</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>47029; 64130</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>483903; 632205</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>629437; 766447</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>612875; 750418</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>395933; 545338</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>46340; 62462</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>45583; 60748</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>945139; 1167618</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1261420; 1492025</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1114228; 1318262</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>771019; 983273</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>96266; 118464</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>95774; 117889</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
